--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.00255766642689</v>
+        <v>9.568356333333332</v>
       </c>
       <c r="H2">
-        <v>5.00255766642689</v>
+        <v>28.705069</v>
       </c>
       <c r="I2">
-        <v>0.05622659089620877</v>
+        <v>0.09973288675158326</v>
       </c>
       <c r="J2">
-        <v>0.05622659089620877</v>
+        <v>0.09973288675158326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.8783648876213</v>
+        <v>13.999936</v>
       </c>
       <c r="N2">
-        <v>12.8783648876213</v>
+        <v>41.999808</v>
       </c>
       <c r="O2">
-        <v>0.1918721015514017</v>
+        <v>0.2017049292741484</v>
       </c>
       <c r="P2">
-        <v>0.1918721015514017</v>
+        <v>0.2017049292741485</v>
       </c>
       <c r="Q2">
-        <v>64.42476299961281</v>
+        <v>133.9563762918613</v>
       </c>
       <c r="R2">
-        <v>64.42476299961281</v>
+        <v>1205.607386626752</v>
       </c>
       <c r="S2">
-        <v>0.01078831415832649</v>
+        <v>0.02011661486853476</v>
       </c>
       <c r="T2">
-        <v>0.01078831415832649</v>
+        <v>0.02011661486853476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.00255766642689</v>
+        <v>9.568356333333332</v>
       </c>
       <c r="H3">
-        <v>5.00255766642689</v>
+        <v>28.705069</v>
       </c>
       <c r="I3">
-        <v>0.05622659089620877</v>
+        <v>0.09973288675158326</v>
       </c>
       <c r="J3">
-        <v>0.05622659089620877</v>
+        <v>0.09973288675158326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.4439675190871</v>
+        <v>37.74750533333334</v>
       </c>
       <c r="N3">
-        <v>37.4439675190871</v>
+        <v>113.242516</v>
       </c>
       <c r="O3">
-        <v>0.5578699470780931</v>
+        <v>0.5438494785644407</v>
       </c>
       <c r="P3">
-        <v>0.5578699470780931</v>
+        <v>0.5438494785644408</v>
       </c>
       <c r="Q3">
-        <v>187.3156067740486</v>
+        <v>361.1815817237338</v>
       </c>
       <c r="R3">
-        <v>187.3156067740486</v>
+        <v>3250.634235513604</v>
       </c>
       <c r="S3">
-        <v>0.03136712528764958</v>
+        <v>0.05423967845557497</v>
       </c>
       <c r="T3">
-        <v>0.03136712528764958</v>
+        <v>0.05423967845557498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.00255766642689</v>
+        <v>9.568356333333332</v>
       </c>
       <c r="H4">
-        <v>5.00255766642689</v>
+        <v>28.705069</v>
       </c>
       <c r="I4">
-        <v>0.05622659089620877</v>
+        <v>0.09973288675158326</v>
       </c>
       <c r="J4">
-        <v>0.05622659089620877</v>
+        <v>0.09973288675158326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.7971955678744</v>
+        <v>17.66056</v>
       </c>
       <c r="N4">
-        <v>16.7971955678744</v>
+        <v>52.98168</v>
       </c>
       <c r="O4">
-        <v>0.2502579513705051</v>
+        <v>0.2544455921614109</v>
       </c>
       <c r="P4">
-        <v>0.2502579513705051</v>
+        <v>0.2544455921614109</v>
       </c>
       <c r="Q4">
-        <v>84.02893946254186</v>
+        <v>168.9825311262133</v>
       </c>
       <c r="R4">
-        <v>84.02893946254186</v>
+        <v>1520.84278013592</v>
       </c>
       <c r="S4">
-        <v>0.0140711514502327</v>
+        <v>0.02537659342747354</v>
       </c>
       <c r="T4">
-        <v>0.0140711514502327</v>
+        <v>0.02537659342747354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.7128965153674</v>
+        <v>75.94550566666668</v>
       </c>
       <c r="H5">
-        <v>75.7128965153674</v>
+        <v>227.836517</v>
       </c>
       <c r="I5">
-        <v>0.8509803068351633</v>
+        <v>0.7915951551217724</v>
       </c>
       <c r="J5">
-        <v>0.8509803068351633</v>
+        <v>0.7915951551217723</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8783648876213</v>
+        <v>13.999936</v>
       </c>
       <c r="N5">
-        <v>12.8783648876213</v>
+        <v>41.999808</v>
       </c>
       <c r="O5">
-        <v>0.1918721015514017</v>
+        <v>0.2017049292741484</v>
       </c>
       <c r="P5">
-        <v>0.1918721015514017</v>
+        <v>0.2017049292741485</v>
       </c>
       <c r="Q5">
-        <v>975.0583080236127</v>
+        <v>1063.232218820971</v>
       </c>
       <c r="R5">
-        <v>975.0583080236127</v>
+        <v>9569.089969388737</v>
       </c>
       <c r="S5">
-        <v>0.1632793798513195</v>
+        <v>0.1596686447775957</v>
       </c>
       <c r="T5">
-        <v>0.1632793798513195</v>
+        <v>0.1596686447775957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.7128965153674</v>
+        <v>75.94550566666668</v>
       </c>
       <c r="H6">
-        <v>75.7128965153674</v>
+        <v>227.836517</v>
       </c>
       <c r="I6">
-        <v>0.8509803068351633</v>
+        <v>0.7915951551217724</v>
       </c>
       <c r="J6">
-        <v>0.8509803068351633</v>
+        <v>0.7915951551217723</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.4439675190871</v>
+        <v>37.74750533333334</v>
       </c>
       <c r="N6">
-        <v>37.4439675190871</v>
+        <v>113.242516</v>
       </c>
       <c r="O6">
-        <v>0.5578699470780931</v>
+        <v>0.5438494785644407</v>
       </c>
       <c r="P6">
-        <v>0.5578699470780931</v>
+        <v>0.5438494785644408</v>
       </c>
       <c r="Q6">
-        <v>2834.99123789742</v>
+        <v>2866.753380195198</v>
       </c>
       <c r="R6">
-        <v>2834.99123789742</v>
+        <v>25800.78042175678</v>
       </c>
       <c r="S6">
-        <v>0.474736338738632</v>
+        <v>0.4305086123471134</v>
       </c>
       <c r="T6">
-        <v>0.474736338738632</v>
+        <v>0.4305086123471135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.7128965153674</v>
+        <v>75.94550566666668</v>
       </c>
       <c r="H7">
-        <v>75.7128965153674</v>
+        <v>227.836517</v>
       </c>
       <c r="I7">
-        <v>0.8509803068351633</v>
+        <v>0.7915951551217724</v>
       </c>
       <c r="J7">
-        <v>0.8509803068351633</v>
+        <v>0.7915951551217723</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.7971955678744</v>
+        <v>17.66056</v>
       </c>
       <c r="N7">
-        <v>16.7971955678744</v>
+        <v>52.98168</v>
       </c>
       <c r="O7">
-        <v>0.2502579513705051</v>
+        <v>0.2544455921614109</v>
       </c>
       <c r="P7">
-        <v>0.2502579513705051</v>
+        <v>0.2544455921614109</v>
       </c>
       <c r="Q7">
-        <v>1271.764329778862</v>
+        <v>1341.240159556507</v>
       </c>
       <c r="R7">
-        <v>1271.764329778862</v>
+        <v>12071.16143600856</v>
       </c>
       <c r="S7">
-        <v>0.2129645882452118</v>
+        <v>0.2014178979970633</v>
       </c>
       <c r="T7">
-        <v>0.2129645882452118</v>
+        <v>0.2014178979970633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.255930828215289</v>
+        <v>10.42596933333333</v>
       </c>
       <c r="H8">
-        <v>8.255930828215289</v>
+        <v>31.277908</v>
       </c>
       <c r="I8">
-        <v>0.09279310226862793</v>
+        <v>0.1086719581266445</v>
       </c>
       <c r="J8">
-        <v>0.09279310226862793</v>
+        <v>0.1086719581266445</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.8783648876213</v>
+        <v>13.999936</v>
       </c>
       <c r="N8">
-        <v>12.8783648876213</v>
+        <v>41.999808</v>
       </c>
       <c r="O8">
-        <v>0.1918721015514017</v>
+        <v>0.2017049292741484</v>
       </c>
       <c r="P8">
-        <v>0.1918721015514017</v>
+        <v>0.2017049292741485</v>
       </c>
       <c r="Q8">
-        <v>106.322889692718</v>
+        <v>145.9629034046293</v>
       </c>
       <c r="R8">
-        <v>106.322889692718</v>
+        <v>1313.666130641664</v>
       </c>
       <c r="S8">
-        <v>0.01780440754175578</v>
+        <v>0.02191966962801804</v>
       </c>
       <c r="T8">
-        <v>0.01780440754175578</v>
+        <v>0.02191966962801805</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.255930828215289</v>
+        <v>10.42596933333333</v>
       </c>
       <c r="H9">
-        <v>8.255930828215289</v>
+        <v>31.277908</v>
       </c>
       <c r="I9">
-        <v>0.09279310226862793</v>
+        <v>0.1086719581266445</v>
       </c>
       <c r="J9">
-        <v>0.09279310226862793</v>
+        <v>0.1086719581266445</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.4439675190871</v>
+        <v>37.74750533333334</v>
       </c>
       <c r="N9">
-        <v>37.4439675190871</v>
+        <v>113.242516</v>
       </c>
       <c r="O9">
-        <v>0.5578699470780931</v>
+        <v>0.5438494785644407</v>
       </c>
       <c r="P9">
-        <v>0.5578699470780931</v>
+        <v>0.5438494785644408</v>
       </c>
       <c r="Q9">
-        <v>309.1348057715232</v>
+        <v>393.5543330151698</v>
       </c>
       <c r="R9">
-        <v>309.1348057715232</v>
+        <v>3541.988997136528</v>
       </c>
       <c r="S9">
-        <v>0.05176648305181154</v>
+        <v>0.05910118776175233</v>
       </c>
       <c r="T9">
-        <v>0.05176648305181154</v>
+        <v>0.05910118776175233</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.255930828215289</v>
+        <v>10.42596933333333</v>
       </c>
       <c r="H10">
-        <v>8.255930828215289</v>
+        <v>31.277908</v>
       </c>
       <c r="I10">
-        <v>0.09279310226862793</v>
+        <v>0.1086719581266445</v>
       </c>
       <c r="J10">
-        <v>0.09279310226862793</v>
+        <v>0.1086719581266445</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.7971955678744</v>
+        <v>17.66056</v>
       </c>
       <c r="N10">
-        <v>16.7971955678744</v>
+        <v>52.98168</v>
       </c>
       <c r="O10">
-        <v>0.2502579513705051</v>
+        <v>0.2544455921614109</v>
       </c>
       <c r="P10">
-        <v>0.2502579513705051</v>
+        <v>0.2544455921614109</v>
       </c>
       <c r="Q10">
-        <v>138.6764847163755</v>
+        <v>184.1284569694933</v>
       </c>
       <c r="R10">
-        <v>138.6764847163755</v>
+        <v>1657.15611272544</v>
       </c>
       <c r="S10">
-        <v>0.02322221167506059</v>
+        <v>0.0276511007368741</v>
       </c>
       <c r="T10">
-        <v>0.02322221167506059</v>
+        <v>0.0276511007368741</v>
       </c>
     </row>
   </sheetData>
